--- a/Admission/PersonalInfo2024.xlsx
+++ b/Admission/PersonalInfo2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>User ID</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>mcgi</t>
+  </si>
+  <si>
+    <t>Meg Angeline</t>
+  </si>
+  <si>
+    <t>2003-12-23</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,6 +879,56 @@
         <v>61</v>
       </c>
       <c r="T6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>71564</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>4103</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Admission/PersonalInfo2024.xlsx
+++ b/Admission/PersonalInfo2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>User ID</t>
   </si>
@@ -77,14 +77,13 @@
     <t>Indigenous</t>
   </si>
   <si>
-    <t xml:space="preserve">Meg </t>
+    <t>Meg</t>
   </si>
   <si>
     <t>Fabian</t>
   </si>
   <si>
-    <t xml:space="preserve">CALABARZON (Region IV-A)
-</t>
+    <t>IVA</t>
   </si>
   <si>
     <t>Cavite</t>
@@ -99,7 +98,7 @@
     <t>Jade</t>
   </si>
   <si>
-    <t>09876543211</t>
+    <t>09478645104</t>
   </si>
   <si>
     <t>2003-12-08</t>
@@ -109,105 +108,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Jennie</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>Metro Manila</t>
-  </si>
-  <si>
-    <t>Street 1</t>
-  </si>
-  <si>
-    <t>09123456782</t>
-  </si>
-  <si>
-    <t>2003-08-12</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Manoban</t>
-  </si>
-  <si>
-    <t>Makati</t>
-  </si>
-  <si>
-    <t>Cuyo</t>
-  </si>
-  <si>
-    <t>09872513456</t>
-  </si>
-  <si>
-    <t>1997-12-03</t>
-  </si>
-  <si>
-    <t>Shanley</t>
-  </si>
-  <si>
-    <t>Querijero</t>
-  </si>
-  <si>
-    <t>Galo</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>Malagasang II-B</t>
-  </si>
-  <si>
-    <t>Greengate</t>
-  </si>
-  <si>
-    <t>09265909552</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2003-08-07</t>
-  </si>
-  <si>
-    <t>Catholic</t>
-  </si>
-  <si>
-    <t>Pamela</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Murillo</t>
-  </si>
-  <si>
-    <t>carsadang bago 1</t>
-  </si>
-  <si>
-    <t>09478645104</t>
-  </si>
-  <si>
-    <t>2002-09-10</t>
-  </si>
-  <si>
-    <t>mcgi</t>
-  </si>
-  <si>
-    <t>Meg Angeline</t>
-  </si>
-  <si>
-    <t>2003-12-23</t>
   </si>
 </sst>
 </file>
@@ -546,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,10 +518,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>31143</v>
+        <v>38710</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -663,272 +563,6 @@
       </c>
       <c r="S2"/>
       <c r="T2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>21664</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>183</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3"/>
-      <c r="T3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>13416</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4">
-        <v>1200</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4"/>
-      <c r="T4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>74283</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5">
-        <v>4103</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>67395</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6">
-        <v>38</v>
-      </c>
-      <c r="L6">
-        <v>1000</v>
-      </c>
-      <c r="M6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6"/>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>71564</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7">
-        <v>4103</v>
-      </c>
-      <c r="M7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7"/>
-      <c r="T7" t="s">
         <v>30</v>
       </c>
     </row>
